--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-1-200-5 (Круглая 0.2 л.)/XXI-В-28-1-200-5 (Круглая 0.2 л.) от 03.10.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/XXI-В-28-1-200-5 (Круглая 0.2 л.)/XXI-В-28-1-200-5 (Круглая 0.2 л.) от 03.10.2019.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\XXI-В-28-1-200-5 (Бутылка 0.2 л.)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\XXI-В-28-1-200-5 (Круглая 0.2 л.)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,9 +113,6 @@
     <t>Воронка</t>
   </si>
   <si>
-    <t>Начальник СПО                                             А.Д. Гавриленко</t>
-  </si>
-  <si>
     <t>Втулка плунжера</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Формокомплект бутылки  "Круглая 0.2" тип ХХI-В-28-1-200-5</t>
+  </si>
+  <si>
+    <t>Начальник УРФ                                             А.Д. Гавриленко</t>
   </si>
 </sst>
 </file>
@@ -902,20 +902,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="168" fontId="4" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -925,6 +911,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1235,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A14" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1256,49 +1256,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6">
-      <c r="A1" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
+      <c r="A1" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
       <c r="J1" s="93"/>
       <c r="K1" s="93"/>
       <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:13" ht="15.6">
-      <c r="A2" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
+      <c r="A2" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
       <c r="J2" s="89"/>
       <c r="K2" s="89"/>
       <c r="L2" s="89"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
+      <c r="A3" s="104" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="104"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
       <c r="K3" s="37"/>
       <c r="L3" s="37"/>
       <c r="M3" s="1"/>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
       <c r="A5" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>0</v>
@@ -1326,19 +1326,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="92" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="92" t="s">
-        <v>32</v>
       </c>
       <c r="I5" s="73"/>
       <c r="J5" s="73"/>
@@ -1353,7 +1353,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="47">
         <v>24</v>
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
         <v>24</v>
@@ -1409,7 +1409,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="7">
         <v>32</v>
@@ -1437,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7">
         <v>32</v>
@@ -1465,7 +1465,7 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
         <v>20</v>
@@ -1490,10 +1490,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
         <v>20</v>
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
         <v>60</v>
@@ -1550,7 +1550,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
         <v>20</v>
@@ -1579,7 +1579,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="7">
         <v>8</v>
@@ -1609,7 +1609,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="7">
         <v>50</v>
@@ -1637,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="7">
         <v>60</v>
@@ -1665,10 +1665,10 @@
         <v>10</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="51">
         <v>24</v>
@@ -1973,12 +1973,12 @@
       <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="94" t="s">
+      <c r="A36" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1987,10 +1987,10 @@
       <c r="J36" s="1"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="104" t="s">
+      <c r="A37" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="104"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="10" t="s">
         <v>15</v>
       </c>
@@ -2005,11 +2005,11 @@
       <c r="J37" s="1"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="102">
+      <c r="A38" s="96">
         <f>A21-F32</f>
         <v>14065980</v>
       </c>
-      <c r="B38" s="103"/>
+      <c r="B38" s="97"/>
       <c r="C38" s="78">
         <f>1-G32</f>
         <v>0.83726071428571425</v>
@@ -2019,7 +2019,7 @@
         <v>104.65758928571427</v>
       </c>
       <c r="E38" s="90" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F38" s="90"/>
       <c r="G38" s="90"/>
@@ -2071,8 +2071,8 @@
       <c r="F42" s="62"/>
       <c r="G42" s="62"/>
       <c r="H42" s="62"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="101"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="95"/>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="63"/>
@@ -2166,9 +2166,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6">
       <c r="A52" s="1"/>
-      <c r="B52" s="96"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="97"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="102"/>
       <c r="E52" s="68"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -2185,8 +2185,8 @@
       <c r="F53" s="62"/>
       <c r="G53" s="62"/>
       <c r="H53" s="62"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="101"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="95"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="63"/>
@@ -2197,8 +2197,8 @@
       <c r="F54" s="65"/>
       <c r="G54" s="65"/>
       <c r="H54" s="64"/>
-      <c r="I54" s="95"/>
-      <c r="J54" s="95"/>
+      <c r="I54" s="99"/>
+      <c r="J54" s="99"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="63"/>
@@ -2209,8 +2209,8 @@
       <c r="F55" s="66"/>
       <c r="G55" s="66"/>
       <c r="H55" s="66"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="95"/>
+      <c r="I55" s="99"/>
+      <c r="J55" s="99"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="1"/>
@@ -2223,18 +2223,24 @@
       <c r="H56" s="1"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="B61" s="100"/>
-      <c r="C61" s="101"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="95"/>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="100"/>
-      <c r="C68" s="101"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="95"/>
     </row>
   </sheetData>
   <sortState ref="B9:B16">
     <sortCondition ref="B9"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:I3"/>
     <mergeCell ref="B68:C68"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
@@ -2242,12 +2248,6 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:I3"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
